--- a/Documentação/Excel/Tabela_de_Requisitos_1.0.xlsx
+++ b/Documentação/Excel/Tabela_de_Requisitos_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Fernando\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Novo_git_pj\SenSolutions\Documentação\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926189E8-D6AB-4B6F-944C-11DDCAF0717F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C68AEB-4843-4CF9-8F7D-A7C66D3F7AAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -274,18 +274,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -614,27 +614,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="111.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="167.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -652,11 +652,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -672,11 +672,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -685,18 +685,18 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -705,18 +705,18 @@
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -725,7 +725,7 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -742,11 +742,11 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -760,11 +760,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -774,11 +774,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -788,11 +788,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -802,11 +802,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -817,7 +817,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
